--- a/docs/workspace/study/flash_type_price_study.xlsx
+++ b/docs/workspace/study/flash_type_price_study.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="150" windowWidth="23715" windowHeight="11175"/>
+    <workbookView xWindow="120" yWindow="150" windowWidth="23715" windowHeight="11175" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="SPI NOR flash" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="135">
   <si>
     <t xml:space="preserve">vendor </t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -568,6 +568,26 @@
   </si>
   <si>
     <t>KMFN60012M-B214</t>
+  </si>
+  <si>
+    <t>4.41</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>x8, 52Mhz</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>KLMBG4GESD-B03P</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>32Gb</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1157,7 +1177,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:I9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
@@ -1621,10 +1641,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C2:K10"/>
+  <dimension ref="C2:K11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1728,25 +1748,25 @@
     </row>
     <row r="5" spans="3:11">
       <c r="C5" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="D5" s="20" t="s">
-        <v>73</v>
+        <v>66</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>132</v>
       </c>
       <c r="E5" s="3">
         <v>3.3</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>68</v>
+        <v>133</v>
       </c>
       <c r="G5" s="4" t="s">
         <v>84</v>
       </c>
       <c r="H5" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="I5" s="12" t="s">
-        <v>72</v>
+        <v>134</v>
+      </c>
+      <c r="I5" s="16" t="s">
+        <v>83</v>
       </c>
       <c r="J5" s="5"/>
       <c r="K5" s="7" t="s">
@@ -1757,8 +1777,8 @@
       <c r="C6" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="D6" s="19" t="s">
-        <v>74</v>
+      <c r="D6" s="20" t="s">
+        <v>73</v>
       </c>
       <c r="E6" s="3">
         <v>3.3</v>
@@ -1767,10 +1787,10 @@
         <v>68</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>84</v>
+        <v>131</v>
       </c>
       <c r="H6" s="12" t="s">
-        <v>70</v>
+        <v>130</v>
       </c>
       <c r="I6" s="12" t="s">
         <v>72</v>
@@ -1784,14 +1804,14 @@
       <c r="C7" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="D7" s="14" t="s">
-        <v>75</v>
+      <c r="D7" s="19" t="s">
+        <v>74</v>
       </c>
       <c r="E7" s="3">
         <v>3.3</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>16</v>
+        <v>68</v>
       </c>
       <c r="G7" s="4" t="s">
         <v>84</v>
@@ -1809,10 +1829,10 @@
     </row>
     <row r="8" spans="3:11">
       <c r="C8" s="13" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="E8" s="3">
         <v>3.3</v>
@@ -1826,8 +1846,8 @@
       <c r="H8" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="I8" s="16" t="s">
-        <v>86</v>
+      <c r="I8" s="12" t="s">
+        <v>72</v>
       </c>
       <c r="J8" s="5"/>
       <c r="K8" s="7" t="s">
@@ -1835,30 +1855,58 @@
       </c>
     </row>
     <row r="9" spans="3:11">
-      <c r="C9" s="3"/>
-      <c r="D9"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="16"/>
-      <c r="I9" s="16"/>
+      <c r="C9" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="E9" s="3">
+        <v>3.3</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="H9" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="I9" s="16" t="s">
+        <v>86</v>
+      </c>
       <c r="J9" s="5"/>
-      <c r="K9" s="3"/>
+      <c r="K9" s="7" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="10" spans="3:11">
       <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
+      <c r="D10"/>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="17"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="16"/>
       <c r="J10" s="5"/>
       <c r="K10" s="3"/>
+    </row>
+    <row r="11" spans="3:11">
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
